--- a/Autumn 2022/Intro to ECE/TwoYearProjection.xlsx
+++ b/Autumn 2022/Intro to ECE/TwoYearProjection.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Epic Gage\Documents\College-Work\Autumn 2022\Intro to ECE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\natur\OneDrive\Documents\College-Work\Autumn 2022\Intro to ECE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8E4F8BAD-506E-4A4D-AC52-500FADB566B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AD72303-18D4-4670-8041-6AC9601C7EB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-60" yWindow="-60" windowWidth="28920" windowHeight="15870" xr2:uid="{105DF81D-9956-4D82-91E5-A59AA746C599}"/>
+    <workbookView xWindow="5760" yWindow="0" windowWidth="17280" windowHeight="8880" xr2:uid="{105DF81D-9956-4D82-91E5-A59AA746C599}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="27">
   <si>
     <t>Autumn 2022</t>
   </si>
@@ -106,13 +106,22 @@
   </si>
   <si>
     <t>MATH 1151</t>
+  </si>
+  <si>
+    <t>Summer 2023</t>
+  </si>
+  <si>
+    <t>PHYS 1251</t>
+  </si>
+  <si>
+    <t>Summer 2024</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -128,8 +137,21 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -148,8 +170,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.749992370372631"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="6">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -210,24 +238,95 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -542,105 +641,205 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFB5B1E8-5BFB-4DA0-85FF-16BACC49E9E5}">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.42578125" customWidth="1"/>
-    <col min="2" max="2" width="12.140625" customWidth="1"/>
+    <col min="1" max="1" width="13.44140625" customWidth="1"/>
+    <col min="2" max="2" width="12.109375" customWidth="1"/>
     <col min="3" max="3" width="13" customWidth="1"/>
-    <col min="4" max="4" width="11.5703125" customWidth="1"/>
-    <col min="5" max="5" width="9.28515625" customWidth="1"/>
-    <col min="7" max="7" width="9.140625" customWidth="1"/>
+    <col min="4" max="5" width="12.5546875" customWidth="1"/>
+    <col min="6" max="6" width="12.77734375" customWidth="1"/>
+    <col min="7" max="7" width="9.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="16" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="19" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="19" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="D4" s="19" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="19" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="10" t="s">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="12" t="s">
+      <c r="C6" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="12" t="s">
+      <c r="D6" s="22" t="s">
         <v>22</v>
       </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F10" s="1"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" s="7"/>
+      <c r="D11" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F11" s="7"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="1"/>
+      <c r="D12" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F12" s="6"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" s="3"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
